--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelDSDonVi.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelDSDonVi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEB\ASP\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D936F70D-C51E-4EB0-A6D2-E774E001E214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFA13A4-0858-47F7-8247-EF7A016B22EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
+    <workbookView xWindow="105" yWindow="735" windowWidth="28695" windowHeight="15465" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -39,24 +39,15 @@
     <t>Tên đơn vị</t>
   </si>
   <si>
-    <t>Địa chỉ</t>
-  </si>
-  <si>
     <t>Người đại diện</t>
   </si>
   <si>
-    <t>Chức vụ người đại diện</t>
-  </si>
-  <si>
     <t>001/TDG</t>
   </si>
   <si>
     <t>Công ty cổ phần định giá và tài chính Việt Nam</t>
   </si>
   <si>
-    <t>Hà Nội</t>
-  </si>
-  <si>
     <t>Vũ An Khang</t>
   </si>
   <si>
@@ -69,9 +60,6 @@
     <t>Chi nhánh miền nam - Công ty cổ phần định giá và tài chính Việt Nam</t>
   </si>
   <si>
-    <t>HCM</t>
-  </si>
-  <si>
     <t>Nguyễn Thu Hằng</t>
   </si>
   <si>
@@ -79,6 +67,18 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>Số thẻ</t>
+  </si>
+  <si>
+    <t>ABC123</t>
+  </si>
+  <si>
+    <t>BCD456</t>
+  </si>
+  <si>
+    <t>Chức danh đăng ký hành nghề</t>
   </si>
 </sst>
 </file>
@@ -86,7 +86,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -163,7 +163,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -513,7 +513,7 @@
   <dimension ref="A2:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,10 +553,10 @@
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -564,39 +564,39 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="E4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelDSDonVi.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelDSDonVi.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\excel csdlgia\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFA13A4-0858-47F7-8247-EF7A016B22EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2E5E62-7C5D-4DD1-A909-4597899CABF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="735" windowWidth="28695" windowHeight="15465" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -88,17 +88,41 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F4254"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -106,17 +130,8 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="163"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -163,37 +178,40 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -510,98 +528,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25EDB618-C5B0-413B-AC3B-04F8B54E01C1}">
-  <dimension ref="A2:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="38.42578125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="28.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="38.375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="19.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
